--- a/biology/Zoologie/Couleuvre_diadème/Couleuvre_diadème.xlsx
+++ b/biology/Zoologie/Couleuvre_diadème/Couleuvre_diadème.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Couleuvre_diad%C3%A8me</t>
+          <t>Couleuvre_diadème</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lytorhynchus diadema
-La Couleuvre diadème, Lytorhynchus diadema, est une espèce de serpent de la famille des Colubridae[1].
+La Couleuvre diadème, Lytorhynchus diadema, est une espèce de serpent de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Couleuvre_diad%C3%A8me</t>
+          <t>Couleuvre_diadème</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Algérie, en Arabie saoudite, en Égypte, en Irak, dans le sud-ouest de l'Iran, en Israël, en Jordanie, au Koweït, en Libye, au Maroc, en Mauritanie, au Niger, à Oman, au Sahara occidental, en Syrie et en Tunisie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Algérie, en Arabie saoudite, en Égypte, en Irak, dans le sud-ouest de l'Iran, en Israël, en Jordanie, au Koweït, en Libye, au Maroc, en Mauritanie, au Niger, à Oman, au Sahara occidental, en Syrie et en Tunisie.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Couleuvre_diad%C3%A8me</t>
+          <t>Couleuvre_diadème</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans leur description[2] les auteurs indiquent que le spécimen en leur possession mesure 38 cm dont 5 cm pour la queue. Sa tête est peu distincte du tronc. Ses yeux sont petits et presque verticaux. Sa queue est très petite et conique ; sa forme rappelle celle des queues de scinques. Les écailles sont lisses et peu allongées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans leur description les auteurs indiquent que le spécimen en leur possession mesure 38 cm dont 5 cm pour la queue. Sa tête est peu distincte du tronc. Ses yeux sont petits et presque verticaux. Sa queue est très petite et conique ; sa forme rappelle celle des queues de scinques. Les écailles sont lisses et peu allongées.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Couleuvre_diad%C3%A8me</t>
+          <t>Couleuvre_diadème</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Reptile Database   (17 février 2014)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Reptile Database   (17 février 2014) :
 Lytorhynchus diadema diadema (Duméril, Bibron &amp; Duméril, 1854)
 Lytorhynchus diadema gaddi Nikolsky, 1907 - Arabie Saoudite, Irak, Sud-Ouest de l'Iran
 Lytorhynchus diadema arabicus Haas, 1952
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Couleuvre_diad%C3%A8me</t>
+          <t>Couleuvre_diadème</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Duméril, Bibron &amp; Duméril, 1854 : Erpétologie Générale ou Histoire Naturelle Complète des Reptiles. vol. 7, p. 1-780 (texte intégral).
 Haas, 1952 : Two collections of reptiles from Iraq, with descriptions of two new forms. Copeia, vol. 1952, no 1, p. 20—22.
